--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="9555"/>
+    <workbookView windowWidth="18825" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="远程配置" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -34,7 +33,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -50,7 +48,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>ResRemote</t>
+  </si>
   <si>
     <t>required_key</t>
   </si>
@@ -61,117 +62,77 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>target_type</t>
+  </si>
+  <si>
+    <t>move_speed</t>
+  </si>
+  <si>
+    <t>max_move_distance</t>
+  </si>
+  <si>
+    <t>effect_name</t>
+  </si>
+  <si>
+    <t>logic_path</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程目标类型</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>最大移动距离</t>
+  </si>
+  <si>
+    <t>特效名称</t>
+  </si>
+  <si>
+    <t>技能执行的逻辑路径文件</t>
   </si>
   <si>
     <t>子弹1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能执行的逻辑路径文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResRemote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetForward</t>
+  </si>
+  <si>
+    <t>eff_bullet0</t>
   </si>
   <si>
     <t>Config/Remote/Template_Move_Forward.bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>move_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_move_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大移动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff_blast0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,34 +141,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,9 +487,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -229,10 +743,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -523,151 +1084,151 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="9555"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="远程配置" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>ResRemote</t>
   </si>
@@ -110,29 +110,27 @@
     <t>技能执行的逻辑路径文件</t>
   </si>
   <si>
+    <t>子弹1</t>
+  </si>
+  <si>
     <t>TargetForward</t>
   </si>
   <si>
+    <t>eff_bullet1</t>
+  </si>
+  <si>
     <t>Config/Remote/Template_Move_Forward.bytes</t>
   </si>
   <si>
     <t>子弹2</t>
   </si>
   <si>
+    <t>eff_bullet2</t>
+  </si>
+  <si>
     <t>子弹3</t>
   </si>
   <si>
-    <t>eff_bullet2</t>
-  </si>
-  <si>
-    <t>子弹1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff_bullet1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>eff_bullet3</t>
   </si>
   <si>
@@ -172,20 +170,18 @@
     <t>eff_bullet9</t>
   </si>
   <si>
+    <t>子弹11</t>
+  </si>
+  <si>
+    <t>eff_bullet11</t>
+  </si>
+  <si>
     <t>子弹12</t>
   </si>
   <si>
     <t>eff_bullet12</t>
   </si>
   <si>
-    <t>子弹11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff_bullet11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹13</t>
   </si>
   <si>
@@ -217,11 +213,9 @@
   </si>
   <si>
     <t>子弹19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>eff_bullet19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>子弹20</t>
@@ -249,19 +243,15 @@
   </si>
   <si>
     <t>子弹25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>eff_bullet25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>子弹29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>eff_bullet29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>子弹30</t>
@@ -423,8 +413,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,32 +429,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -466,9 +775,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -480,10 +1031,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -491,6 +1089,2069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1524000"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1905000"/>
+          <a:ext cx="800735" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2286000"/>
+          <a:ext cx="809625" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2667000"/>
+          <a:ext cx="800735" cy="407035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3048000"/>
+          <a:ext cx="809625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3429000"/>
+          <a:ext cx="809625" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3810000"/>
+          <a:ext cx="828675" cy="391160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>791210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>362585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4191000"/>
+          <a:ext cx="781685" cy="362585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4572000"/>
+          <a:ext cx="829310" cy="387985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="4953000"/>
+          <a:ext cx="810260" cy="407670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5334000"/>
+          <a:ext cx="800735" cy="403225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5715000"/>
+          <a:ext cx="793115" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>794385</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6096000"/>
+          <a:ext cx="784860" cy="391160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6477000"/>
+          <a:ext cx="800735" cy="421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>377190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="6858000"/>
+          <a:ext cx="800735" cy="377190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7239000"/>
+          <a:ext cx="790575" cy="427990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>370840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="7620000"/>
+          <a:ext cx="810260" cy="370840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="8001000"/>
+          <a:ext cx="772160" cy="374650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="8382000"/>
+          <a:ext cx="800100" cy="452755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="8763000"/>
+          <a:ext cx="829310" cy="477520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9144000"/>
+          <a:ext cx="819785" cy="401320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799465</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9525000"/>
+          <a:ext cx="789940" cy="384810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9906000"/>
+          <a:ext cx="790575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10287000"/>
+          <a:ext cx="485775" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10668000"/>
+          <a:ext cx="457200" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9525" y="11049000"/>
+          <a:ext cx="819785" cy="375920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="11430000"/>
+          <a:ext cx="819785" cy="404495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="11811000"/>
+          <a:ext cx="800735" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12192000"/>
+          <a:ext cx="829310" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12573000"/>
+          <a:ext cx="809625" cy="386715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12954000"/>
+          <a:ext cx="829310" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="13335000"/>
+          <a:ext cx="323850" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="13716000"/>
+          <a:ext cx="409575" cy="410210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366395</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="14097000"/>
+          <a:ext cx="356870" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="14478000"/>
+          <a:ext cx="790575" cy="391795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="14859000"/>
+          <a:ext cx="781050" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>377825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="15240000"/>
+          <a:ext cx="829310" cy="377825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>381635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="15621000"/>
+          <a:ext cx="762000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="16002000"/>
+          <a:ext cx="791845" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>786765</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>381635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="16383000"/>
+          <a:ext cx="777240" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="16764000"/>
+          <a:ext cx="771525" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="17145000"/>
+          <a:ext cx="609600" cy="400685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="17526000"/>
+          <a:ext cx="857250" cy="391160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="17907000"/>
+          <a:ext cx="800100" cy="479425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>795020</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>372110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="18288000"/>
+          <a:ext cx="785495" cy="372110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="18669000"/>
+          <a:ext cx="793115" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>377190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19050000"/>
+          <a:ext cx="800100" cy="377190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>372745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19431000"/>
+          <a:ext cx="819150" cy="372745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="19812000"/>
+          <a:ext cx="809625" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,19 +3435,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
@@ -797,7 +3458,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +3484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -846,7 +3507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,7 +3530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -892,61 +3553,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="2:8">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
       <c r="F5" s="1">
         <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
       <c r="F6" s="1">
         <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -958,10 +3619,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -969,10 +3630,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
         <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>80</v>
@@ -981,10 +3642,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -992,10 +3653,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>80</v>
@@ -1004,10 +3665,10 @@
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1015,10 +3676,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>80</v>
@@ -1027,10 +3688,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1038,10 +3699,10 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
         <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
@@ -1050,10 +3711,10 @@
         <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1061,7 +3722,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -1073,10 +3734,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1084,10 +3745,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1">
         <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>80</v>
@@ -1096,18 +3757,18 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -1116,21 +3777,21 @@
         <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:8">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -1139,13 +3800,13 @@
         <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:8">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1153,7 +3814,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>50</v>
@@ -1165,10 +3826,10 @@
         <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:8">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1176,7 +3837,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -1188,10 +3849,10 @@
         <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:8">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1199,7 +3860,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
@@ -1211,10 +3872,10 @@
         <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:8">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1222,7 +3883,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -1234,10 +3895,10 @@
         <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:8">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1245,7 +3906,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -1257,10 +3918,10 @@
         <v>53</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:8">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1268,7 +3929,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -1280,10 +3941,10 @@
         <v>55</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:8">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1291,7 +3952,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -1303,10 +3964,10 @@
         <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:8">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1314,7 +3975,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -1326,10 +3987,10 @@
         <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:8">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1337,7 +3998,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -1349,10 +4010,10 @@
         <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:8">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1360,7 +4021,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
@@ -1372,10 +4033,10 @@
         <v>63</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:8">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -1383,7 +4044,7 @@
         <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1">
         <v>50</v>
@@ -1395,10 +4056,10 @@
         <v>65</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="1">
         <v>29</v>
       </c>
@@ -1406,7 +4067,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -1418,10 +4079,10 @@
         <v>67</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="1">
         <v>30</v>
       </c>
@@ -1429,7 +4090,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1">
         <v>50</v>
@@ -1441,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:8">
       <c r="B29" s="1">
         <v>31</v>
       </c>
@@ -1452,7 +4113,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -1464,10 +4125,10 @@
         <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:8">
       <c r="B30" s="1">
         <v>32</v>
       </c>
@@ -1475,7 +4136,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
@@ -1487,10 +4148,10 @@
         <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="1">
         <v>33</v>
       </c>
@@ -1498,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1">
         <v>50</v>
@@ -1510,10 +4171,10 @@
         <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:8">
       <c r="B32" s="1">
         <v>34</v>
       </c>
@@ -1521,7 +4182,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
@@ -1533,10 +4194,10 @@
         <v>77</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:8">
       <c r="B33" s="1">
         <v>35</v>
       </c>
@@ -1544,7 +4205,7 @@
         <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
@@ -1556,10 +4217,10 @@
         <v>79</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:8">
       <c r="B34" s="1">
         <v>36</v>
       </c>
@@ -1567,7 +4228,7 @@
         <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1">
         <v>50</v>
@@ -1579,10 +4240,10 @@
         <v>81</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:8">
       <c r="B35" s="1">
         <v>37</v>
       </c>
@@ -1590,7 +4251,7 @@
         <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1">
         <v>50</v>
@@ -1602,10 +4263,10 @@
         <v>83</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:8">
       <c r="B36" s="1">
         <v>38</v>
       </c>
@@ -1613,7 +4274,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1">
         <v>50</v>
@@ -1625,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:8">
       <c r="B37" s="1">
         <v>39</v>
       </c>
@@ -1636,7 +4297,7 @@
         <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1">
         <v>50</v>
@@ -1648,10 +4309,10 @@
         <v>87</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:8">
       <c r="B38" s="1">
         <v>40</v>
       </c>
@@ -1659,7 +4320,7 @@
         <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1">
         <v>50</v>
@@ -1671,10 +4332,10 @@
         <v>89</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:8">
       <c r="B39" s="1">
         <v>41</v>
       </c>
@@ -1682,7 +4343,7 @@
         <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1">
         <v>50</v>
@@ -1694,10 +4355,10 @@
         <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:8">
       <c r="B40" s="1">
         <v>42</v>
       </c>
@@ -1705,7 +4366,7 @@
         <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1">
         <v>50</v>
@@ -1717,10 +4378,10 @@
         <v>93</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:8">
       <c r="B41" s="1">
         <v>43</v>
       </c>
@@ -1728,7 +4389,7 @@
         <v>94</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1">
         <v>50</v>
@@ -1740,10 +4401,10 @@
         <v>95</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:8">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -1751,7 +4412,7 @@
         <v>96</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1">
         <v>50</v>
@@ -1763,10 +4424,10 @@
         <v>97</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:8">
       <c r="B43" s="1">
         <v>45</v>
       </c>
@@ -1774,7 +4435,7 @@
         <v>98</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1">
         <v>50</v>
@@ -1786,10 +4447,10 @@
         <v>99</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:8">
       <c r="B44" s="1">
         <v>46</v>
       </c>
@@ -1797,7 +4458,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1">
         <v>50</v>
@@ -1809,10 +4470,10 @@
         <v>101</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:8">
       <c r="B45" s="1">
         <v>47</v>
       </c>
@@ -1820,7 +4481,7 @@
         <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1">
         <v>50</v>
@@ -1832,10 +4493,10 @@
         <v>103</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:8">
       <c r="B46" s="1">
         <v>48</v>
       </c>
@@ -1843,7 +4504,7 @@
         <v>104</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1">
         <v>50</v>
@@ -1855,10 +4516,10 @@
         <v>105</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:8">
       <c r="B47" s="1">
         <v>49</v>
       </c>
@@ -1866,7 +4527,7 @@
         <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1">
         <v>50</v>
@@ -1878,10 +4539,10 @@
         <v>107</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:8">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -1889,7 +4550,7 @@
         <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1">
         <v>50</v>
@@ -1901,10 +4562,10 @@
         <v>109</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:8">
       <c r="B49" s="1">
         <v>51</v>
       </c>
@@ -1912,7 +4573,7 @@
         <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1">
         <v>50</v>
@@ -1924,10 +4585,10 @@
         <v>111</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:8">
       <c r="B50" s="1">
         <v>52</v>
       </c>
@@ -1935,7 +4596,7 @@
         <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1">
         <v>50</v>
@@ -1947,10 +4608,10 @@
         <v>113</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:8">
       <c r="B51" s="1">
         <v>53</v>
       </c>
@@ -1958,7 +4619,7 @@
         <v>114</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1">
         <v>50</v>
@@ -1970,10 +4631,10 @@
         <v>115</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:8">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -1981,7 +4642,7 @@
         <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1">
         <v>50</v>
@@ -1993,10 +4654,10 @@
         <v>117</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:8">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -2004,7 +4665,7 @@
         <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1">
         <v>50</v>
@@ -2016,13 +4677,14 @@
         <v>119</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="远程配置" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,58 +559,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -503,71 +566,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,13 +582,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,169 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,10 +778,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -791,7 +789,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,11 +809,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,30 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,6 +862,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,133 +893,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2658,7 +2658,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>381635</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2742,7 +2742,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>786765</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>381635</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3443,8 +3443,8 @@
   <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
@@ -3564,7 +3564,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>80</v>
@@ -3587,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
         <v>80</v>
@@ -3633,7 +3633,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>80</v>
@@ -3702,7 +3702,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
@@ -3748,7 +3748,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>80</v>

--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -429,11 +429,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,31 +444,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,46 +482,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,10 +504,48 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,15 +557,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +606,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,43 +690,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,55 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +744,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,20 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +802,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,9 +841,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,32 +873,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,16 +893,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,115 +911,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3443,8 +3443,8 @@
   <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
@@ -3564,7 +3564,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>80</v>
@@ -3587,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <v>80</v>
@@ -3633,7 +3633,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>80</v>
@@ -3656,7 +3656,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>80</v>
@@ -3679,7 +3679,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>80</v>
@@ -3702,7 +3702,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>80</v>
@@ -3748,7 +3748,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1">
         <v>80</v>
@@ -3771,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1">
         <v>80</v>
@@ -3794,7 +3794,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1">
         <v>80</v>
@@ -3817,7 +3817,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
         <v>80</v>
@@ -3840,7 +3840,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
         <v>80</v>
@@ -3863,7 +3863,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
         <v>80</v>
@@ -3886,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1">
         <v>80</v>
@@ -3909,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>80</v>
@@ -3978,7 +3978,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1">
         <v>80</v>
@@ -4070,7 +4070,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1">
         <v>80</v>
@@ -4093,7 +4093,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
         <v>80</v>
@@ -4116,7 +4116,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1">
         <v>80</v>

--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>ResRemote</t>
   </si>
@@ -83,6 +83,9 @@
     <t>max_move_distance</t>
   </si>
   <si>
+    <t>add_damage</t>
+  </si>
+  <si>
     <t>effect_name</t>
   </si>
   <si>
@@ -98,10 +101,13 @@
     <t>远程目标类型</t>
   </si>
   <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>最大移动距离</t>
+    <t>移动速度(RM_TemplateConstantVelocityAction生效)</t>
+  </si>
+  <si>
+    <t>最大移动距离(RM_TemplateConstantVelocityAction生效)</t>
+  </si>
+  <si>
+    <t>附加伤害(RM_TemplateHurtAction生效)</t>
   </si>
   <si>
     <t>特效名称</t>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>eff_bullet8</t>
+  </si>
+  <si>
+    <t>Config/Remote/Remote_8.bytes</t>
   </si>
   <si>
     <t>子弹9</t>
@@ -582,12 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -612,12 +615,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,12 +633,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,12 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +699,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,25 +747,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,139 +902,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,7 +1133,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="1524000"/>
+          <a:off x="9525" y="1955800"/>
           <a:ext cx="781050" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1163,7 +1175,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="1905000"/>
+          <a:off x="9525" y="2336800"/>
           <a:ext cx="800735" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1205,7 +1217,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2286000"/>
+          <a:off x="9525" y="2717800"/>
           <a:ext cx="809625" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1247,7 +1259,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2667000"/>
+          <a:off x="9525" y="3098800"/>
           <a:ext cx="800735" cy="407035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1289,7 +1301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3048000"/>
+          <a:off x="9525" y="3479800"/>
           <a:ext cx="809625" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1331,7 +1343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3429000"/>
+          <a:off x="9525" y="3860800"/>
           <a:ext cx="809625" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1373,7 +1385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3810000"/>
+          <a:off x="9525" y="4241800"/>
           <a:ext cx="828675" cy="391160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1415,7 +1427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4191000"/>
+          <a:off x="9525" y="4622800"/>
           <a:ext cx="781685" cy="362585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1457,7 +1469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4572000"/>
+          <a:off x="9525" y="5003800"/>
           <a:ext cx="829310" cy="387985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1499,7 +1511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="4953000"/>
+          <a:off x="9525" y="5384800"/>
           <a:ext cx="810260" cy="407670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1541,7 +1553,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5334000"/>
+          <a:off x="9525" y="5765800"/>
           <a:ext cx="800735" cy="403225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1583,7 +1595,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5715000"/>
+          <a:off x="9525" y="6146800"/>
           <a:ext cx="793115" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1625,7 +1637,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="6096000"/>
+          <a:off x="9525" y="6527800"/>
           <a:ext cx="784860" cy="391160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1667,7 +1679,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="6477000"/>
+          <a:off x="9525" y="6908800"/>
           <a:ext cx="800735" cy="421640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1709,7 +1721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="6858000"/>
+          <a:off x="9525" y="7289800"/>
           <a:ext cx="800735" cy="377190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1751,7 +1763,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="7239000"/>
+          <a:off x="9525" y="7670800"/>
           <a:ext cx="790575" cy="427990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1793,7 +1805,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="7620000"/>
+          <a:off x="9525" y="8051800"/>
           <a:ext cx="810260" cy="370840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1835,7 +1847,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="8001000"/>
+          <a:off x="9525" y="8432800"/>
           <a:ext cx="772160" cy="374650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1877,7 +1889,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="8382000"/>
+          <a:off x="9525" y="8813800"/>
           <a:ext cx="800100" cy="452755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1919,7 +1931,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="8763000"/>
+          <a:off x="9525" y="9194800"/>
           <a:ext cx="829310" cy="477520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1961,7 +1973,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9144000"/>
+          <a:off x="9525" y="9575800"/>
           <a:ext cx="819785" cy="401320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2003,7 +2015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9525000"/>
+          <a:off x="9525" y="9956800"/>
           <a:ext cx="789940" cy="384810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2045,7 +2057,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="9906000"/>
+          <a:off x="9525" y="10337800"/>
           <a:ext cx="790575" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2087,7 +2099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10287000"/>
+          <a:off x="0" y="10718800"/>
           <a:ext cx="485775" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2129,7 +2141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10668000"/>
+          <a:off x="0" y="11099800"/>
           <a:ext cx="457200" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2171,7 +2183,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9525" y="11049000"/>
+          <a:off x="9525" y="11480800"/>
           <a:ext cx="819785" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2213,7 +2225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="11430000"/>
+          <a:off x="9525" y="11861800"/>
           <a:ext cx="819785" cy="404495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2255,7 +2267,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="11811000"/>
+          <a:off x="9525" y="12242800"/>
           <a:ext cx="800735" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2297,7 +2309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12192000"/>
+          <a:off x="9525" y="12623800"/>
           <a:ext cx="829310" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2339,7 +2351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12573000"/>
+          <a:off x="9525" y="13004800"/>
           <a:ext cx="809625" cy="386715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2381,7 +2393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="12954000"/>
+          <a:off x="9525" y="13385800"/>
           <a:ext cx="829310" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2423,7 +2435,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="13335000"/>
+          <a:off x="9525" y="13766800"/>
           <a:ext cx="323850" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2465,7 +2477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="13716000"/>
+          <a:off x="9525" y="14147800"/>
           <a:ext cx="409575" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2507,7 +2519,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="14097000"/>
+          <a:off x="9525" y="14528800"/>
           <a:ext cx="356870" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2549,7 +2561,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="14478000"/>
+          <a:off x="9525" y="14909800"/>
           <a:ext cx="790575" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2591,7 +2603,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="14859000"/>
+          <a:off x="9525" y="15290800"/>
           <a:ext cx="781050" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2633,7 +2645,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="15240000"/>
+          <a:off x="9525" y="15671800"/>
           <a:ext cx="829310" cy="377825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2675,7 +2687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="15621000"/>
+          <a:off x="9525" y="16052800"/>
           <a:ext cx="762000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2717,7 +2729,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="16002000"/>
+          <a:off x="9525" y="16433800"/>
           <a:ext cx="791845" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2759,7 +2771,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="16383000"/>
+          <a:off x="9525" y="16814800"/>
           <a:ext cx="777240" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2801,7 +2813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="16764000"/>
+          <a:off x="9525" y="17195800"/>
           <a:ext cx="771525" cy="396875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2843,7 +2855,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="17145000"/>
+          <a:off x="9525" y="17576800"/>
           <a:ext cx="609600" cy="400685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2885,7 +2897,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="17526000"/>
+          <a:off x="9525" y="17957800"/>
           <a:ext cx="857250" cy="391160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2927,7 +2939,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="17907000"/>
+          <a:off x="9525" y="18338800"/>
           <a:ext cx="800100" cy="479425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2969,7 +2981,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="18288000"/>
+          <a:off x="9525" y="18719800"/>
           <a:ext cx="785495" cy="372110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3011,7 +3023,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="18669000"/>
+          <a:off x="9525" y="19100800"/>
           <a:ext cx="793115" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3053,7 +3065,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="19050000"/>
+          <a:off x="9525" y="19481800"/>
           <a:ext cx="800100" cy="377190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3095,7 +3107,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="19431000"/>
+          <a:off x="9525" y="19862800"/>
           <a:ext cx="819150" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3137,7 +3149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="19812000"/>
+          <a:off x="9525" y="20243800"/>
           <a:ext cx="809625" cy="414020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3441,1243 +3453,1403 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="46" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:8">
-      <c r="B2" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:9">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:8">
-      <c r="B3" s="1" t="s">
+    <row r="3" customHeight="1" spans="2:9">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:8">
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="64" customHeight="1" spans="2:9">
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:9">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:9">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:9">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:9">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:9">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:8">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
-        <v>80</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F23" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:9">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:8">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:9">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="2">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:9">
+      <c r="B27" s="2">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F27" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:8">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
+      <c r="B28" s="2">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="2">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:9">
+      <c r="B30" s="2">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="1">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:8">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:8">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>80</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:8">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F30" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:9">
+      <c r="B31" s="2">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:8">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>50</v>
+      </c>
+      <c r="F31" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:9">
+      <c r="B32" s="2">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
-        <v>80</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:9">
+      <c r="B33" s="2">
         <v>35</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:8">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:9">
+      <c r="B34" s="2">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2">
         <v>50</v>
       </c>
-      <c r="F12" s="1">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F34" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:9">
+      <c r="B35" s="2">
         <v>37</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:8">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2">
+        <v>50</v>
+      </c>
+      <c r="F35" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:9">
+      <c r="B36" s="2">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2">
+        <v>80</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:9">
+      <c r="B37" s="2">
         <v>39</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:8">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="2">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2">
+        <v>80</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:9">
+      <c r="B38" s="2">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>80</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2">
+        <v>80</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:9">
+      <c r="B39" s="2">
         <v>41</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:8">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="2">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:9">
+      <c r="B40" s="2">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>80</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="2">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2">
+        <v>80</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="2">
         <v>43</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:8">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="2">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2">
+        <v>80</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="2">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="2">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2">
+        <v>80</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:9">
+      <c r="B43" s="2">
         <v>45</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:8">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2">
+        <v>80</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:9">
+      <c r="B44" s="2">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:9">
+      <c r="B45" s="2">
         <v>47</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:8">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:9">
+      <c r="B46" s="2">
         <v>48</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
-        <v>80</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="2">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:9">
+      <c r="B47" s="2">
         <v>49</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:8">
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="2">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F47" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="2">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="2">
+        <v>50</v>
+      </c>
+      <c r="F48" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="2">
         <v>51</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:8">
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="2">
         <v>52</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1">
-        <v>80</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="B51" s="2">
         <v>53</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:8">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="2">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="2">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2">
         <v>50</v>
       </c>
-      <c r="F21" s="1">
-        <v>80</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F52" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="2">
         <v>55</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:8">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2">
         <v>50</v>
       </c>
-      <c r="F22" s="1">
-        <v>80</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:8">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="1">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1">
-        <v>80</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:8">
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:8">
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1">
-        <v>80</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:8">
-      <c r="B26" s="1">
+      <c r="F53" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
-        <v>80</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:8">
-      <c r="B27" s="1">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1">
-        <v>80</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:8">
-      <c r="B28" s="1">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1">
-        <v>80</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:8">
-      <c r="B29" s="1">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1">
-        <v>80</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:8">
-      <c r="B30" s="1">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1">
-        <v>80</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:8">
-      <c r="B31" s="1">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="1">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1">
-        <v>80</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:8">
-      <c r="B32" s="1">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1">
-        <v>80</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:8">
-      <c r="B33" s="1">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="1">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1">
-        <v>80</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:8">
-      <c r="B34" s="1">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="1">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1">
-        <v>80</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:8">
-      <c r="B35" s="1">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="1">
-        <v>50</v>
-      </c>
-      <c r="F35" s="1">
-        <v>80</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:8">
-      <c r="B36" s="1">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1">
-        <v>80</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:8">
-      <c r="B37" s="1">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="1">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1">
-        <v>80</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:8">
-      <c r="B38" s="1">
-        <v>40</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1">
-        <v>80</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:8">
-      <c r="B39" s="1">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="1">
-        <v>50</v>
-      </c>
-      <c r="F39" s="1">
-        <v>80</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:8">
-      <c r="B40" s="1">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1">
-        <v>50</v>
-      </c>
-      <c r="F40" s="1">
-        <v>80</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:8">
-      <c r="B41" s="1">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1">
-        <v>50</v>
-      </c>
-      <c r="F41" s="1">
-        <v>80</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:8">
-      <c r="B42" s="1">
-        <v>44</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="1">
-        <v>50</v>
-      </c>
-      <c r="F42" s="1">
-        <v>80</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:8">
-      <c r="B43" s="1">
-        <v>45</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="1">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1">
-        <v>80</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:8">
-      <c r="B44" s="1">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="1">
-        <v>50</v>
-      </c>
-      <c r="F44" s="1">
-        <v>80</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:8">
-      <c r="B45" s="1">
-        <v>47</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="1">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1">
-        <v>80</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:8">
-      <c r="B46" s="1">
-        <v>48</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="1">
-        <v>50</v>
-      </c>
-      <c r="F46" s="1">
-        <v>80</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:8">
-      <c r="B47" s="1">
-        <v>49</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="1">
-        <v>50</v>
-      </c>
-      <c r="F47" s="1">
-        <v>80</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:8">
-      <c r="B48" s="1">
-        <v>50</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="1">
-        <v>50</v>
-      </c>
-      <c r="F48" s="1">
-        <v>80</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:8">
-      <c r="B49" s="1">
-        <v>51</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="1">
-        <v>50</v>
-      </c>
-      <c r="F49" s="1">
-        <v>80</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:8">
-      <c r="B50" s="1">
-        <v>52</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="1">
-        <v>50</v>
-      </c>
-      <c r="F50" s="1">
-        <v>80</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:8">
-      <c r="B51" s="1">
-        <v>53</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="1">
-        <v>50</v>
-      </c>
-      <c r="F51" s="1">
-        <v>80</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:8">
-      <c r="B52" s="1">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="1">
-        <v>50</v>
-      </c>
-      <c r="F52" s="1">
-        <v>80</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:8">
-      <c r="B53" s="1">
-        <v>55</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="1">
-        <v>50</v>
-      </c>
-      <c r="F53" s="1">
-        <v>80</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/远程配置.xlsx
+++ b/Data/Excel/远程配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="远程配置" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>ResRemote</t>
   </si>
@@ -83,9 +83,6 @@
     <t>max_move_distance</t>
   </si>
   <si>
-    <t>add_damage</t>
-  </si>
-  <si>
     <t>effect_name</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>最大移动距离(RM_TemplateConstantVelocityAction生效)</t>
   </si>
   <si>
-    <t>附加伤害(RM_TemplateHurtAction生效)</t>
-  </si>
-  <si>
     <t>特效名称</t>
   </si>
   <si>
@@ -227,6 +221,9 @@
     <t>eff_bullet19</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_19.bytes</t>
+  </si>
+  <si>
     <t>子弹20</t>
   </si>
   <si>
@@ -251,12 +248,18 @@
     <t>eff_bullet23</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_23.bytes</t>
+  </si>
+  <si>
     <t>子弹25</t>
   </si>
   <si>
     <t>eff_bullet25</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_25.bytes</t>
+  </si>
+  <si>
     <t>子弹29</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
     <t>eff_bullet40</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_40.bytes</t>
+  </si>
+  <si>
     <t>子弹41</t>
   </si>
   <si>
@@ -365,6 +371,9 @@
     <t>eff_bullet46</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_46.bytes</t>
+  </si>
+  <si>
     <t>子弹47</t>
   </si>
   <si>
@@ -389,12 +398,18 @@
     <t>eff_bullet50</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_50.bytes</t>
+  </si>
+  <si>
     <t>子弹51</t>
   </si>
   <si>
     <t>eff_bullet51</t>
   </si>
   <si>
+    <t>Config/Remote/Remote_51.bytes</t>
+  </si>
+  <si>
     <t>子弹52</t>
   </si>
   <si>
@@ -417,6 +432,27 @@
   </si>
   <si>
     <t>eff_bullet55</t>
+  </si>
+  <si>
+    <t>子弹56</t>
+  </si>
+  <si>
+    <t>eff_bullet56</t>
+  </si>
+  <si>
+    <t>Config/Remote/Remote_56.bytes</t>
+  </si>
+  <si>
+    <t>子弹57</t>
+  </si>
+  <si>
+    <t>eff_blast7</t>
+  </si>
+  <si>
+    <t>Config/Remote/Remote_56_1.bytes</t>
+  </si>
+  <si>
+    <t>Config/Remote/Remote_58.bytes</t>
   </si>
 </sst>
 </file>
@@ -445,32 +481,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,25 +534,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,18 +547,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,23 +581,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,13 +627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +687,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,37 +735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,25 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,37 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,45 +818,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,13 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +883,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -890,10 +926,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,133 +938,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3151,6 +3187,48 @@
         <a:xfrm>
           <a:off x="9525" y="20243800"/>
           <a:ext cx="809625" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29845</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="20539075"/>
+          <a:ext cx="820420" cy="484505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3453,25 +3531,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
     <col min="3" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3496,11 +3574,8 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:9">
+    </row>
+    <row r="2" customHeight="1" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3517,16 +3592,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:9">
+    </row>
+    <row r="3" customHeight="1" spans="2:8">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3548,45 +3620,39 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="64" customHeight="1" spans="2:8">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="64" customHeight="1" spans="2:9">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:9">
+    </row>
+    <row r="5" customHeight="1" spans="2:8">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
@@ -3594,25 +3660,22 @@
       <c r="F5" s="2">
         <v>80</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:8">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
@@ -3620,25 +3683,22 @@
       <c r="F6" s="2">
         <v>80</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>50</v>
@@ -3646,25 +3706,22 @@
       <c r="F7" s="2">
         <v>80</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>20</v>
@@ -3672,25 +3729,22 @@
       <c r="F8" s="2">
         <v>80</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>15</v>
@@ -3698,25 +3752,22 @@
       <c r="F9" s="2">
         <v>80</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>15</v>
@@ -3724,25 +3775,22 @@
       <c r="F10" s="2">
         <v>80</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>20</v>
@@ -3750,25 +3798,22 @@
       <c r="F11" s="2">
         <v>80</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>50</v>
@@ -3776,25 +3821,22 @@
       <c r="F12" s="2">
         <v>80</v>
       </c>
-      <c r="G12" s="2">
-        <v>1</v>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>15</v>
@@ -3802,25 +3844,22 @@
       <c r="F13" s="2">
         <v>80</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:8">
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>30</v>
@@ -3828,25 +3867,22 @@
       <c r="F14" s="2">
         <v>80</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:8">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>20</v>
@@ -3854,25 +3890,22 @@
       <c r="F15" s="2">
         <v>80</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:8">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>20</v>
@@ -3880,25 +3913,22 @@
       <c r="F16" s="2">
         <v>80</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
+      <c r="G16" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:8">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -3906,25 +3936,22 @@
       <c r="F17" s="2">
         <v>80</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:8">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>20</v>
@@ -3932,25 +3959,22 @@
       <c r="F18" s="2">
         <v>80</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:8">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -3958,25 +3982,22 @@
       <c r="F19" s="2">
         <v>80</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:8">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="2">
         <v>20</v>
@@ -3984,25 +4005,22 @@
       <c r="F20" s="2">
         <v>80</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:8">
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>50</v>
@@ -4010,25 +4028,22 @@
       <c r="F21" s="2">
         <v>80</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
+      <c r="G21" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:8">
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>50</v>
@@ -4036,25 +4051,22 @@
       <c r="F22" s="2">
         <v>80</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:8">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:9">
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>20</v>
@@ -4062,25 +4074,22 @@
       <c r="F23" s="2">
         <v>80</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:8">
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>50</v>
@@ -4088,25 +4097,22 @@
       <c r="F24" s="2">
         <v>80</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
+      <c r="G24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:8">
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2">
         <v>50</v>
@@ -4114,17 +4120,14 @@
       <c r="F25" s="2">
         <v>80</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
+      <c r="G25" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
+    </row>
+    <row r="26" customHeight="1" spans="2:8">
       <c r="B26" s="2">
         <v>25</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2">
         <v>50</v>
@@ -4140,25 +4143,22 @@
       <c r="F26" s="2">
         <v>80</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
+      <c r="G26" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:8">
       <c r="B27" s="2">
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2">
         <v>20</v>
@@ -4166,25 +4166,22 @@
       <c r="F27" s="2">
         <v>80</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
+      <c r="G27" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:8">
       <c r="B28" s="2">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2">
         <v>20</v>
@@ -4192,25 +4189,22 @@
       <c r="F28" s="2">
         <v>80</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:8">
       <c r="B29" s="2">
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2">
         <v>20</v>
@@ -4218,25 +4212,22 @@
       <c r="F29" s="2">
         <v>80</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
+      <c r="G29" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:8">
       <c r="B30" s="2">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2">
         <v>50</v>
@@ -4244,25 +4235,22 @@
       <c r="F30" s="2">
         <v>80</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
+      <c r="G30" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:8">
       <c r="B31" s="2">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
         <v>50</v>
@@ -4270,25 +4258,22 @@
       <c r="F31" s="2">
         <v>80</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
+      <c r="G31" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:8">
       <c r="B32" s="2">
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2">
         <v>50</v>
@@ -4296,25 +4281,22 @@
       <c r="F32" s="2">
         <v>80</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
+      <c r="G32" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:8">
       <c r="B33" s="2">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2">
         <v>50</v>
@@ -4322,25 +4304,22 @@
       <c r="F33" s="2">
         <v>80</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
+      <c r="G33" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:8">
       <c r="B34" s="2">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2">
         <v>50</v>
@@ -4348,25 +4327,22 @@
       <c r="F34" s="2">
         <v>80</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
+      <c r="G34" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:8">
       <c r="B35" s="2">
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2">
         <v>50</v>
@@ -4374,25 +4350,22 @@
       <c r="F35" s="2">
         <v>80</v>
       </c>
-      <c r="G35" s="2">
-        <v>0</v>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:8">
       <c r="B36" s="2">
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2">
         <v>50</v>
@@ -4400,25 +4373,22 @@
       <c r="F36" s="2">
         <v>80</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
+      <c r="G36" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:8">
       <c r="B37" s="2">
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="2">
         <v>50</v>
@@ -4426,25 +4396,22 @@
       <c r="F37" s="2">
         <v>80</v>
       </c>
-      <c r="G37" s="2">
-        <v>0</v>
+      <c r="G37" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:8">
       <c r="B38" s="2">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2">
         <v>50</v>
@@ -4452,25 +4419,22 @@
       <c r="F38" s="2">
         <v>80</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
+      <c r="G38" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:8">
       <c r="B39" s="2">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2">
         <v>50</v>
@@ -4478,25 +4442,22 @@
       <c r="F39" s="2">
         <v>80</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
+      <c r="G39" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:8">
       <c r="B40" s="2">
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2">
         <v>50</v>
@@ -4504,25 +4465,22 @@
       <c r="F40" s="2">
         <v>80</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
+      <c r="G40" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:8">
       <c r="B41" s="2">
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2">
         <v>50</v>
@@ -4530,25 +4488,22 @@
       <c r="F41" s="2">
         <v>80</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
+      <c r="G41" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:8">
       <c r="B42" s="2">
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2">
         <v>50</v>
@@ -4556,25 +4511,22 @@
       <c r="F42" s="2">
         <v>80</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
+      <c r="G42" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:8">
       <c r="B43" s="2">
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2">
         <v>50</v>
@@ -4582,25 +4534,22 @@
       <c r="F43" s="2">
         <v>80</v>
       </c>
-      <c r="G43" s="2">
-        <v>0</v>
+      <c r="G43" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:8">
       <c r="B44" s="2">
         <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2">
         <v>50</v>
@@ -4608,25 +4557,22 @@
       <c r="F44" s="2">
         <v>80</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
+      <c r="G44" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:8">
       <c r="B45" s="2">
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
         <v>50</v>
@@ -4634,25 +4580,22 @@
       <c r="F45" s="2">
         <v>80</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
+      <c r="G45" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:8">
       <c r="B46" s="2">
         <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="2">
         <v>50</v>
@@ -4660,25 +4603,22 @@
       <c r="F46" s="2">
         <v>80</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
+      <c r="G46" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:8">
       <c r="B47" s="2">
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="2">
         <v>50</v>
@@ -4686,25 +4626,22 @@
       <c r="F47" s="2">
         <v>80</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
+      <c r="G47" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:8">
       <c r="B48" s="2">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2">
         <v>50</v>
@@ -4712,25 +4649,22 @@
       <c r="F48" s="2">
         <v>80</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
+      <c r="G48" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:8">
       <c r="B49" s="2">
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="2">
         <v>50</v>
@@ -4738,25 +4672,22 @@
       <c r="F49" s="2">
         <v>80</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
+      <c r="G49" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:8">
       <c r="B50" s="2">
         <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2">
         <v>50</v>
@@ -4764,25 +4695,22 @@
       <c r="F50" s="2">
         <v>80</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
+      <c r="G50" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:8">
       <c r="B51" s="2">
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2">
         <v>50</v>
@@ -4790,25 +4718,22 @@
       <c r="F51" s="2">
         <v>80</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
+      <c r="G51" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:8">
       <c r="B52" s="2">
         <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2">
         <v>50</v>
@@ -4816,25 +4741,22 @@
       <c r="F52" s="2">
         <v>80</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
+      <c r="G52" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:8">
       <c r="B53" s="2">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2">
         <v>50</v>
@@ -4842,14 +4764,80 @@
       <c r="F53" s="2">
         <v>80</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:8">
+      <c r="B54" s="2">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B55" s="2">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>25</v>
+      <c r="F55" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B56" s="2">
+        <v>58</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2">
+        <v>15</v>
+      </c>
+      <c r="F56" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
